--- a/src/data/Resultats.xlsx
+++ b/src/data/Resultats.xlsx
@@ -546,17 +546,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FDN0609 FONTE D'AFFINAGE</t>
+          <t>FDN1221 RAILS DE CHEMIN DE FER 40CM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>530</v>
+        <v>423.9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.399</v>
+        <v>0.428</v>
       </c>
       <c r="D2" t="n">
-        <v>211.661</v>
+        <v>181.325</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -565,58 +565,58 @@
         <v/>
       </c>
       <c r="G2" t="n">
-        <v>4.25</v>
+        <v>0.1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.763</v>
+        <v>0.335</v>
       </c>
       <c r="I2" t="n">
-        <v>0.038</v>
+        <v>0.98</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001</v>
+        <v>0.041</v>
       </c>
       <c r="K2" t="n">
-        <v>0.019</v>
+        <v>0.051</v>
       </c>
       <c r="L2" t="n">
-        <v>0.027</v>
+        <v>0.018</v>
       </c>
       <c r="M2" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.002</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.003</v>
       </c>
       <c r="R2" t="n">
         <v>0.014</v>
       </c>
       <c r="S2" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="T2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.005</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -698,17 +698,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FDN1204. FRITE HAUT SILICIUM</t>
+          <t>FDN1203 BROYÉ AUTOMOBILE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507</v>
+        <v>383</v>
       </c>
       <c r="C4" t="n">
-        <v>0.099</v>
+        <v>0.221</v>
       </c>
       <c r="D4" t="n">
-        <v>50.378</v>
+        <v>84.81699999999999</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -717,55 +717,55 @@
         <v/>
       </c>
       <c r="G4" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.035</v>
+        <v>0.35</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -774,17 +774,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FDN0184 Disque</t>
+          <t>FDN0151 FePh</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>430</v>
+        <v>1250</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09</v>
+        <v>0.001</v>
       </c>
       <c r="D5" t="n">
-        <v>38.56</v>
+        <v>0.988</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -793,22 +793,22 @@
         <v/>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>0.02</v>
       </c>
       <c r="H5" t="n">
-        <v>1.9</v>
+        <v>0.65</v>
       </c>
       <c r="I5" t="n">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04</v>
+        <v>25.37</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -850,17 +850,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FDN1221 RAILS DE CHEMIN DE FER 40CM</t>
+          <t>FDN0184 Disque</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>423.9</v>
+        <v>430</v>
       </c>
       <c r="C6" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>8.933</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -869,74 +869,74 @@
         <v/>
       </c>
       <c r="G6" t="n">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.335</v>
+        <v>1.9</v>
       </c>
       <c r="I6" t="n">
-        <v>0.98</v>
+        <v>0.45</v>
       </c>
       <c r="J6" t="n">
-        <v>0.041</v>
+        <v>0.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.051</v>
+        <v>0.16</v>
       </c>
       <c r="L6" t="n">
-        <v>0.018</v>
+        <v>0.04</v>
       </c>
       <c r="M6" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.014</v>
+        <v>0.16</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>92658100 E3C Cubilot</t>
+          <t>FDN0263 Cuivre</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>430</v>
+        <v>7550</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8.589</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -945,131 +945,131 @@
         <v/>
       </c>
       <c r="G7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.175</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FDN1203 BROYÉ AUTOMOBILE</t>
+          <t>FDN0609 FONTE D'AFFINAGE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383</v>
+        <v>530</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.014</v>
       </c>
-      <c r="D8" t="n">
-        <v>5.486</v>
-      </c>
-      <c r="E8" t="n">
-        <v/>
-      </c>
-      <c r="F8" t="n">
-        <v/>
-      </c>
-      <c r="G8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1078,17 +1078,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FDN1206 SABOTS DE FREINS SNCF</t>
+          <t>FDN1089. CARBONE 99.05 5-10MM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>435</v>
+        <v>991</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -1097,28 +1097,28 @@
         <v/>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>90</v>
       </c>
       <c r="H9" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1148,80 +1148,80 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FDN0207 FERRO SILICIUM 75</t>
+          <t>FDN1204. FRITE HAUT SILICIUM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2100</v>
+        <v>507</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.004</v>
       </c>
-      <c r="D10" t="n">
-        <v>7.422</v>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>75</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1230,17 +1230,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FDN1089. CARBONE 99.05 5-10MM</t>
+          <t>FDN1206 SABOTS DE FREINS SNCF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>991</v>
+        <v>435</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.179</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -1249,28 +1249,28 @@
         <v/>
       </c>
       <c r="G11" t="n">
-        <v>90</v>
+        <v>3.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12">
@@ -1384,73 +1384,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6759.9</v>
+        <v>13029.9</v>
       </c>
       <c r="C13" t="n">
-        <v>1.003</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>520.6079999999999</v>
+        <v>452.63</v>
       </c>
       <c r="E13" t="n">
-        <v>0.159531</v>
+        <v>0.199904</v>
       </c>
       <c r="F13" t="n">
-        <v>1.15572109</v>
+        <v>1.12999042</v>
       </c>
       <c r="G13" t="n">
-        <v>3.50405</v>
+        <v>1.43082</v>
       </c>
       <c r="H13" t="n">
-        <v>2.019572</v>
+        <v>1.17853</v>
       </c>
       <c r="I13" t="n">
-        <v>0.200292</v>
+        <v>0.60844</v>
       </c>
       <c r="J13" t="n">
-        <v>0.055195</v>
+        <v>0.038548</v>
       </c>
       <c r="K13" t="n">
-        <v>0.051117</v>
+        <v>0.116818</v>
       </c>
       <c r="L13" t="n">
-        <v>0.030001</v>
+        <v>0.043574</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006966</v>
+        <v>0.012488</v>
       </c>
       <c r="N13" t="n">
-        <v>0.006576</v>
+        <v>0.005212</v>
       </c>
       <c r="O13" t="n">
-        <v>0.013264</v>
+        <v>0.008284</v>
       </c>
       <c r="P13" t="n">
-        <v>0.005678</v>
+        <v>0.006924</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.009323</v>
+        <v>0.004356</v>
       </c>
       <c r="R13" t="n">
-        <v>0.026363</v>
+        <v>0.009492</v>
       </c>
       <c r="S13" t="n">
-        <v>0.019236</v>
+        <v>0.017928</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002275</v>
+        <v>0.000856</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008726000000000001</v>
+        <v>0.003927999999999999</v>
       </c>
       <c r="V13" t="n">
-        <v>0.001346</v>
+        <v>0.001206</v>
       </c>
       <c r="W13" t="n">
-        <v>0.001856</v>
+        <v>0.000856</v>
       </c>
       <c r="X13" t="n">
-        <v>0.003785</v>
+        <v>0.005639999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/Resultats.xlsx
+++ b/src/data/Resultats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,17 +546,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FDN1221 RAILS DE CHEMIN DE FER 40CM</t>
+          <t>FDN0609 FONTE D'AFFINAGE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423.9</v>
+        <v>530</v>
       </c>
       <c r="C2" t="n">
-        <v>0.428</v>
+        <v>0.399</v>
       </c>
       <c r="D2" t="n">
-        <v>181.325</v>
+        <v>211.661</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -565,58 +565,58 @@
         <v/>
       </c>
       <c r="G2" t="n">
-        <v>0.1</v>
+        <v>4.25</v>
       </c>
       <c r="H2" t="n">
-        <v>0.335</v>
+        <v>0.763</v>
       </c>
       <c r="I2" t="n">
-        <v>0.98</v>
+        <v>0.038</v>
       </c>
       <c r="J2" t="n">
-        <v>0.041</v>
+        <v>0.001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.051</v>
+        <v>0.019</v>
       </c>
       <c r="L2" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="M2" t="n">
-        <v>0.021</v>
+        <v>0.002</v>
       </c>
       <c r="N2" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="O2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.003</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.008</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="R2" t="n">
         <v>0.014</v>
       </c>
       <c r="S2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.001</v>
       </c>
-      <c r="T2" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.002</v>
-      </c>
       <c r="W2" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -698,17 +698,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FDN1203 BROYÉ AUTOMOBILE</t>
+          <t>FDN1204. FRITE HAUT SILICIUM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383</v>
+        <v>507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.221</v>
+        <v>0.099</v>
       </c>
       <c r="D4" t="n">
-        <v>84.81699999999999</v>
+        <v>50.378</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -717,55 +717,55 @@
         <v/>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K4" t="n">
-        <v>0.35</v>
+        <v>0.035</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.036</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -774,17 +774,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FDN0151 FePh</t>
+          <t>FDN0184 Disque</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250</v>
+        <v>430</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001</v>
+        <v>0.09</v>
       </c>
       <c r="D5" t="n">
-        <v>0.988</v>
+        <v>38.56</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -793,22 +793,22 @@
         <v/>
       </c>
       <c r="G5" t="n">
-        <v>0.02</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.65</v>
+        <v>1.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="L5" t="n">
-        <v>25.37</v>
+        <v>0.04</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -850,17 +850,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FDN0184 Disque</t>
+          <t>FDN1221 RAILS DE CHEMIN DE FER 40CM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430</v>
+        <v>423.9</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>8.933</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -869,74 +869,74 @@
         <v/>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.9</v>
+        <v>0.335</v>
       </c>
       <c r="I6" t="n">
-        <v>0.45</v>
+        <v>0.98</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2</v>
+        <v>0.041</v>
       </c>
       <c r="K6" t="n">
-        <v>0.16</v>
+        <v>0.051</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04</v>
+        <v>0.018</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="R6" t="n">
-        <v>0.16</v>
+        <v>0.014</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FDN0263 Cuivre</t>
+          <t>92658100 E3C Cubilot</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7550</v>
+        <v>430</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>8.589</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -945,74 +945,74 @@
         <v/>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.175</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.031</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FDN0609 FONTE D'AFFINAGE</t>
+          <t>FDN1203 BROYÉ AUTOMOBILE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>530</v>
+        <v>383</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5.486</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -1021,55 +1021,55 @@
         <v/>
       </c>
       <c r="G8" t="n">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
-        <v>0.763</v>
+        <v>0.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0.038</v>
+        <v>0.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.019</v>
+        <v>0.35</v>
       </c>
       <c r="L8" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>991</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.179</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -1154,17 +1154,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FDN1204. FRITE HAUT SILICIUM</t>
+          <t>FDN1212 CARBONE 98-95 2-10MM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507</v>
+        <v>856</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1.924</v>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -1173,74 +1173,72 @@
         <v/>
       </c>
       <c r="G10" t="n">
-        <v>0.1</v>
+        <v>90</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>FDN1206 SABOTS DE FREINS SNCF</t>
-        </is>
+      <c r="A11" t="n">
+        <v/>
       </c>
       <c r="B11" t="n">
-        <v>435</v>
+        <v/>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -1249,208 +1247,134 @@
         <v/>
       </c>
       <c r="G11" t="n">
-        <v>3.7</v>
+        <v/>
       </c>
       <c r="H11" t="n">
-        <v>1.4</v>
+        <v/>
       </c>
       <c r="I11" t="n">
-        <v>0.8</v>
+        <v/>
       </c>
       <c r="J11" t="n">
-        <v>0.14</v>
+        <v/>
       </c>
       <c r="K11" t="n">
-        <v>0.1</v>
+        <v/>
       </c>
       <c r="L11" t="n">
-        <v>0.85</v>
+        <v/>
       </c>
       <c r="M11" t="n">
-        <v>0.08</v>
+        <v/>
       </c>
       <c r="N11" t="n">
-        <v>0.02</v>
+        <v/>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="R11" t="n">
-        <v>0.21</v>
+        <v/>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="U11" t="n">
-        <v>0.07000000000000001</v>
+        <v/>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="X11" t="n">
-        <v>0.04</v>
+        <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Resultats</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v/>
       </c>
       <c r="C12" t="n">
-        <v/>
+        <v>0.997</v>
       </c>
       <c r="D12" t="n">
-        <v/>
+        <v>513.21</v>
       </c>
       <c r="E12" t="n">
-        <v/>
+        <v>0.157491</v>
       </c>
       <c r="F12" t="n">
-        <v/>
+        <v>1.12995069</v>
       </c>
       <c r="G12" t="n">
-        <v/>
+        <v>3.66925</v>
       </c>
       <c r="H12" t="n">
-        <v/>
+        <v>1.713972</v>
       </c>
       <c r="I12" t="n">
-        <v/>
+        <v>0.197092</v>
       </c>
       <c r="J12" t="n">
-        <v/>
+        <v>0.054635</v>
       </c>
       <c r="K12" t="n">
-        <v/>
+        <v>0.050717</v>
       </c>
       <c r="L12" t="n">
-        <v/>
+        <v>0.026521</v>
       </c>
       <c r="M12" t="n">
-        <v/>
+        <v>0.006646</v>
       </c>
       <c r="N12" t="n">
-        <v/>
+        <v>0.006496</v>
       </c>
       <c r="O12" t="n">
-        <v/>
+        <v>0.013264</v>
       </c>
       <c r="P12" t="n">
-        <v/>
+        <v>0.005678</v>
       </c>
       <c r="Q12" t="n">
-        <v/>
+        <v>0.009002999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v/>
+        <v>0.025523</v>
       </c>
       <c r="S12" t="n">
-        <v/>
+        <v>0.019236</v>
       </c>
       <c r="T12" t="n">
-        <v/>
+        <v>0.002275</v>
       </c>
       <c r="U12" t="n">
-        <v/>
+        <v>0.008446</v>
       </c>
       <c r="V12" t="n">
-        <v/>
+        <v>0.001346</v>
       </c>
       <c r="W12" t="n">
-        <v/>
+        <v>0.001856</v>
       </c>
       <c r="X12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Resultats</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13029.9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>452.63</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.199904</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.12999042</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.43082</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.17853</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.60844</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.038548</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.116818</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.043574</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.012488</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.005212</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.008284</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.006924</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.004356</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.009492</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.017928</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.000856</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.003927999999999999</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.001206</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.000856</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.005639999999999999</v>
+        <v>0.003625</v>
       </c>
     </row>
   </sheetData>
